--- a/demo2.xlsx
+++ b/demo2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="39">
   <si>
     <t>S.No.</t>
   </si>
@@ -46,6 +46,15 @@
     <t>Project2 Offboarding</t>
   </si>
   <si>
+    <t>Clint Name Proj3</t>
+  </si>
+  <si>
+    <t>Project3 Onboard</t>
+  </si>
+  <si>
+    <t>Project3 Offboarding</t>
+  </si>
+  <si>
     <t>Bench Days</t>
   </si>
   <si>
@@ -79,6 +88,18 @@
     <t>Priyanka E</t>
   </si>
   <si>
+    <t>Priyanka V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raghu </t>
+  </si>
+  <si>
+    <t>Pavan</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>Qualcom-chn</t>
   </si>
   <si>
@@ -97,13 +118,16 @@
     <t>Qualcom-bnglr</t>
   </si>
   <si>
-    <t>None</t>
+    <t>Oppo</t>
   </si>
   <si>
     <t>Bench</t>
   </si>
   <si>
     <t>Project 1</t>
+  </si>
+  <si>
+    <t>project3</t>
   </si>
   <si>
     <t>Project 2</t>
@@ -468,13 +492,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,69 +535,87 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>210461</v>
       </c>
       <c r="D2" s="2">
-        <v>44409</v>
+        <v>44044</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2">
-        <v>44448</v>
+        <v>44083</v>
       </c>
       <c r="G2" s="2">
-        <v>44491</v>
+        <v>44126</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2">
-        <v>44593</v>
+        <v>44228</v>
       </c>
       <c r="J2" s="2">
-        <v>44835</v>
-      </c>
-      <c r="K2">
-        <v>178</v>
-      </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>44470</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>44621</v>
+      </c>
+      <c r="M2" s="2">
+        <v>44774</v>
+      </c>
+      <c r="N2">
+        <v>392</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>210488</v>
       </c>
       <c r="D3" s="2">
-        <v>44410</v>
+        <v>44045</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2">
-        <v>44464</v>
+        <v>44099</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
         <v>27</v>
@@ -581,37 +623,46 @@
       <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="O3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>210462</v>
       </c>
       <c r="D4" s="2">
-        <v>44411</v>
+        <v>44046</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2">
-        <v>44469</v>
+        <v>44104</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
         <v>27</v>
@@ -619,239 +670,443 @@
       <c r="J4" t="s">
         <v>27</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4">
         <v>58</v>
       </c>
-      <c r="L4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="O4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>210455</v>
       </c>
       <c r="D5" s="2">
-        <v>44412</v>
+        <v>44047</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2">
-        <v>44461</v>
+        <v>44096</v>
       </c>
       <c r="G5" s="2">
-        <v>44472</v>
+        <v>44107</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I5" s="2">
-        <v>44596</v>
+        <v>44231</v>
       </c>
       <c r="J5" s="2">
-        <v>44844</v>
-      </c>
-      <c r="K5">
-        <v>201</v>
+        <v>44479</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5">
+        <v>568</v>
+      </c>
+      <c r="O5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>210458</v>
       </c>
       <c r="D6" s="2">
-        <v>44413</v>
+        <v>44048</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2">
-        <v>44452</v>
+        <v>44087</v>
       </c>
       <c r="G6" s="2">
-        <v>44479</v>
+        <v>44114</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I6" s="2">
+        <v>44238</v>
+      </c>
+      <c r="J6" s="2">
+        <v>44474</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="2">
         <v>44603</v>
       </c>
-      <c r="J6" s="2">
+      <c r="M6" s="2">
         <v>44839</v>
       </c>
-      <c r="K6">
-        <v>196</v>
-      </c>
-      <c r="L6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="N6">
+        <v>327</v>
+      </c>
+      <c r="O6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>210475</v>
       </c>
       <c r="D7" s="2">
-        <v>44414</v>
+        <v>44049</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2">
-        <v>44453</v>
+        <v>44088</v>
       </c>
       <c r="G7" s="2">
-        <v>44496</v>
+        <v>44131</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="J7" s="2">
+        <v>44361</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="2">
         <v>44620</v>
       </c>
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7">
-        <v>163</v>
-      </c>
-      <c r="L7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7">
+        <v>422</v>
+      </c>
+      <c r="O7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>210476</v>
       </c>
       <c r="D8" s="2">
-        <v>44415</v>
+        <v>44050</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2">
-        <v>44454</v>
+        <v>44089</v>
       </c>
       <c r="G8" t="s">
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="2">
-        <v>44599</v>
-      </c>
-      <c r="J8" s="2">
-        <v>44856</v>
-      </c>
-      <c r="K8">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8">
         <v>39</v>
       </c>
-      <c r="L8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="O8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>210477</v>
       </c>
       <c r="D9" s="2">
-        <v>44416</v>
+        <v>44051</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2">
-        <v>44455</v>
+        <v>44090</v>
       </c>
       <c r="G9" t="s">
         <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="2">
-        <v>44616</v>
-      </c>
-      <c r="J9" s="2">
-        <v>44842</v>
-      </c>
-      <c r="K9">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9">
         <v>39</v>
       </c>
-      <c r="L9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="O9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>210470</v>
       </c>
       <c r="D10" s="2">
-        <v>44417</v>
+        <v>44052</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="F10" s="2">
+        <v>44825</v>
+      </c>
+      <c r="G10" s="2">
+        <v>44881</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="I10" s="2">
+        <v>44249</v>
       </c>
       <c r="J10" t="s">
         <v>27</v>
       </c>
-      <c r="K10">
-        <v>455</v>
+      <c r="K10" t="s">
+        <v>27</v>
       </c>
       <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10">
+        <v>141</v>
+      </c>
+      <c r="O10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>210500</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44073</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11">
+        <v>801</v>
+      </c>
+      <c r="O11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>210501</v>
+      </c>
+      <c r="D12" s="2">
+        <v>43841</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="2">
+        <v>44126</v>
+      </c>
+      <c r="G12" s="2">
+        <v>44238</v>
+      </c>
+      <c r="H12" t="s">
         <v>28</v>
+      </c>
+      <c r="I12" s="2">
+        <v>44308</v>
+      </c>
+      <c r="J12" s="2">
+        <v>44460</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="2">
+        <v>44583</v>
+      </c>
+      <c r="M12" s="2">
+        <v>44799</v>
+      </c>
+      <c r="N12">
+        <v>553</v>
+      </c>
+      <c r="O12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>210502</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
